--- a/set_exe/tasks.xlsx
+++ b/set_exe/tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shachar.Yust-extern\PycharmProjects\Tracking_Orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shachar.Yust-extern\PycharmProjects\Tracking_Orders\set_exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47CF80E-623B-41CD-921C-76F4739F5015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E3C28C-63F4-4856-98B3-088BF2282392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>מעקב הוצאות</t>
-  </si>
-  <si>
     <t>לוגים</t>
   </si>
   <si>
     <t>הזמנה חדשה &amp; מעקב הזמנות - במהלך ריחוף מעל שם המוצר שיציג את כולו</t>
+  </si>
+  <si>
+    <t>אם אין את אחד הקבצים - ליצור אותם ריקים</t>
   </si>
 </sst>
 </file>
@@ -353,23 +353,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
